--- a/power_plant_power_calculation.xlsx
+++ b/power_plant_power_calculation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\recep\Desktop\iha_red_treshold_detect\Depot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3655A1-4A60-4FE9-86E2-BDC8850AED68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EEBCC24-CE04-4208-990B-17B0C96AE9A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3765" yWindow="3510" windowWidth="24615" windowHeight="11355" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2985" yWindow="3345" windowWidth="24615" windowHeight="11355" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Antalya_Merkez" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="30">
   <si>
     <t>AYLAR</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>Sıcaklık Farkı</t>
+  </si>
+  <si>
+    <t>U (PE-S)</t>
   </si>
   <si>
     <t>U (PE-D)</t>
@@ -106,28 +109,31 @@
     <t>Aralık</t>
   </si>
   <si>
-    <t>T: Işık Geçirgenliği(%)</t>
-  </si>
-  <si>
     <t>Aörtü: Sera yüzey alanı</t>
   </si>
   <si>
     <t>I: Toplam güneş ışınımı (W/m2)</t>
   </si>
   <si>
-    <t>T: Işık Geçirgenliği</t>
+    <t>T: Işık Geçirgenliği(%)</t>
   </si>
   <si>
     <t>Aörtü: Sera yüzey alanı(m^2)</t>
   </si>
   <si>
-    <t>U (PE-S)</t>
+    <t>Güneşlenme Süresi</t>
+  </si>
+  <si>
+    <t>i Katsayısı</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -142,7 +148,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="162"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -154,6 +159,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA9D18E"/>
         <bgColor rgb="FFC5E0B4"/>
       </patternFill>
@@ -162,11 +173,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFC5E0B4"/>
         <bgColor rgb="FFA9D18E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -181,14 +187,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -197,136 +200,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Kötü" xfId="1" builtinId="27"/>
+    <cellStyle name="Excel Built-in Bad" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -338,7 +229,7 @@
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF9C0006"/>
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
@@ -369,7 +260,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFFC7CE"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -412,31 +303,31 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>157369</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>132522</xdr:rowOff>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>579783</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>132522</xdr:rowOff>
+      <xdr:colOff>703740</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>80880</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Metin kutusu 1">
+        <xdr:cNvPr id="2" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
+        <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="157369" y="3942522"/>
-          <a:ext cx="2642153" cy="1905000"/>
+          <a:off x="297180" y="3352800"/>
+          <a:ext cx="2524920" cy="2763120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -444,12 +335,13 @@
         <a:solidFill>
           <a:schemeClr val="lt1"/>
         </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
+        <a:ln w="9360">
           <a:solidFill>
             <a:schemeClr val="lt1">
               <a:shade val="50000"/>
             </a:schemeClr>
           </a:solidFill>
+          <a:round/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -462,49 +354,131 @@
         <a:effectRef idx="0">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
+        <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000">
+          <a:noAutofit/>
+        </a:bodyPr>
         <a:lstStyle/>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
-            <a:rPr lang="tr-TR" sz="1100"/>
-            <a:t>*Sıcaklık</a:t>
+            <a:rPr lang="tr-TR" sz="1100" b="0" strike="noStrike" spc="-1">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>*Sıcaklık farkı 3 dereceden az olduğunda ısı kaybı katsayısı sıfıra denktir(Neredeyse hiç ısıtma gerekmez.)</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="tr-TR" sz="1100" baseline="0"/>
-            <a:t> farkı 3 dereceden az olduğunda ısı kaybı katsayısı sıfıra denktir(Neredeyse hiç ısıtma gerekmez.)</a:t>
-          </a:r>
-          <a:endParaRPr lang="tr-TR" sz="1100"/>
+          <a:endParaRPr lang="tr-TR" sz="1100" b="0" strike="noStrike" spc="-1">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
-            <a:rPr lang="tr-TR" sz="1100"/>
+            <a:rPr lang="tr-TR" sz="1100" b="0" strike="noStrike" spc="-1">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
             <a:t>*</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
             <a:t>Eğer B sütunundaki bir değer 27 dereceden büyük ise aktif havalandırma yapılacaktır</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="tr-TR" sz="1100"/>
+            <a:rPr lang="tr-TR" sz="1100" b="0" strike="noStrike" spc="-1">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
             <a:t>.(not olarak eklenmeli.)</a:t>
           </a:r>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
-            <a:rPr lang="tr-TR" sz="1100"/>
+            <a:rPr lang="tr-TR" sz="1100" b="0" strike="noStrike" spc="-1">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>*Güneş ışınımı aylara</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="1100" b="0" strike="noStrike" spc="-1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> göre değişeceğinden i kaysayısı ile çarpılmalıdır.</a:t>
+          </a:r>
+          <a:endParaRPr lang="tr-TR" sz="1100" b="0" strike="noStrike" spc="-1">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="1100" b="0" strike="noStrike" spc="-1">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
             <a:t>*Not:</a:t>
           </a:r>
+          <a:endParaRPr lang="tr-TR" sz="1100" b="0" strike="noStrike" spc="-1">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
             <a:t>İstediğimiz seranın iç sıcaklığının minimum 18 C’de olması. 27 dereceye kadar bir müdahale gerekmeyecek, sonrasında ise aktif havalandırma yapılacaktır.</a:t>
           </a:r>
+          <a:endParaRPr lang="tr-TR" sz="1100" b="0" strike="noStrike" spc="-1">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -514,32 +488,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tablo389" displayName="Tablo389" ref="A16:A17" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A16:A17" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tablo389" displayName="Tablo389" ref="A16:A17" totalsRowShown="0">
+  <autoFilter ref="A16:A17" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="I: Toplam güneş ışınımı (W/m2)" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="I: Toplam güneş ışınımı (W/m2)"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tablo38" displayName="Tablo38" ref="A16:A17" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A16:A17" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tablo38" displayName="Tablo38" ref="A16:A17" totalsRowShown="0">
+  <autoFilter ref="A16:A17" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="I: Toplam güneş ışınımı (W/m2)" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="I: Toplam güneş ışınımı (W/m2)"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tablo3" displayName="Tablo3" ref="A16:A17" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
-  <autoFilter ref="A16:A17" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tablo3" displayName="Tablo3" ref="A16:A17" totalsRowShown="0">
+  <autoFilter ref="A16:A17" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="I: Toplam güneş ışınımı (W/m2)" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="I: Toplam güneş ışınımı (W/m2)"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -864,26 +838,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="11.5703125" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.28515625" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -897,34 +873,39 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="4"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1">
         <v>12.35</v>
@@ -936,35 +917,40 @@
         <f>C2-B2</f>
         <v>5.65</v>
       </c>
-      <c r="E2" s="4">
-        <v>4.6199999999999992</v>
-      </c>
-      <c r="F2" s="4">
-        <v>2.3499999999999996</v>
-      </c>
-      <c r="G2" s="4">
-        <v>4.1199999999999992</v>
-      </c>
-      <c r="H2" s="4">
+      <c r="E2" s="3">
+        <v>4.62</v>
+      </c>
+      <c r="F2" s="3">
+        <v>2.35</v>
+      </c>
+      <c r="G2" s="3">
+        <v>4.12</v>
+      </c>
+      <c r="H2" s="3">
         <v>1.41</v>
       </c>
-      <c r="I2" s="4">
-        <v>4.339999999999999</v>
-      </c>
-      <c r="J2" s="4">
-        <v>2.3499999999999996</v>
-      </c>
-      <c r="K2" s="4">
-        <v>4.5299999999999994</v>
-      </c>
-      <c r="L2" s="4">
+      <c r="I2" s="3">
+        <v>4.34</v>
+      </c>
+      <c r="J2" s="3">
+        <v>2.35</v>
+      </c>
+      <c r="K2" s="3">
+        <v>4.53</v>
+      </c>
+      <c r="L2" s="3">
         <v>1.98</v>
       </c>
-      <c r="M2" s="4"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M2" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="N2" s="7">
+        <v>0.51676190476190476</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1">
         <v>12.7</v>
@@ -976,35 +962,40 @@
         <f>C3-B3</f>
         <v>5.3000000000000007</v>
       </c>
-      <c r="E3" s="4">
-        <v>4.6099999999999994</v>
-      </c>
-      <c r="F3" s="4">
+      <c r="E3" s="3">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="F3" s="3">
         <v>2.34</v>
       </c>
-      <c r="G3" s="4">
-        <v>4.1099999999999994</v>
-      </c>
-      <c r="H3" s="4">
+      <c r="G3" s="3">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="H3" s="3">
         <v>1.4</v>
       </c>
-      <c r="I3" s="4">
-        <v>4.3299999999999992</v>
-      </c>
-      <c r="J3" s="4">
+      <c r="I3" s="3">
+        <v>4.33</v>
+      </c>
+      <c r="J3" s="3">
         <v>2.34</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="3">
         <v>4.5199999999999996</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="3">
         <v>1.97</v>
       </c>
-      <c r="M3" s="4"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M3" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="N3" s="7">
+        <v>0.67295238095238097</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1">
         <v>15</v>
@@ -1028,23 +1019,28 @@
       <c r="H4" s="1">
         <v>1.35</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <v>4.2699999999999996</v>
       </c>
       <c r="J4" s="1">
         <v>2.31</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="3">
         <v>4.4400000000000004</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="3">
         <v>1.92</v>
       </c>
-      <c r="M4" s="4"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M4" s="3">
+        <v>6.7</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0.94800000000000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1">
         <v>17.8</v>
@@ -1068,23 +1064,28 @@
       <c r="H5" s="1">
         <v>1.35</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>4.2699999999999996</v>
       </c>
       <c r="J5" s="1">
         <v>2.31</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="3">
         <v>4.4400000000000004</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="3">
         <v>1.92</v>
       </c>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M5" s="3">
+        <v>7.9</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1.1302857142857143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1">
         <v>21.45</v>
@@ -1095,35 +1096,40 @@
       <c r="D6" s="2">
         <v>0</v>
       </c>
-      <c r="E6" s="6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="6">
-        <v>0</v>
-      </c>
-      <c r="I6" s="6">
-        <v>0</v>
-      </c>
-      <c r="J6" s="6">
-        <v>0</v>
-      </c>
-      <c r="K6" s="6">
-        <v>0</v>
-      </c>
-      <c r="L6" s="6">
-        <v>0</v>
-      </c>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="N6" s="7">
+        <v>1.3499047619047619</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1">
         <v>26.6</v>
@@ -1134,35 +1140,40 @@
       <c r="D7" s="2">
         <v>0</v>
       </c>
-      <c r="E7" s="6">
-        <v>0</v>
-      </c>
-      <c r="F7" s="6">
-        <v>0</v>
-      </c>
-      <c r="G7" s="6">
-        <v>0</v>
-      </c>
-      <c r="H7" s="6">
-        <v>0</v>
-      </c>
-      <c r="I7" s="6">
-        <v>0</v>
-      </c>
-      <c r="J7" s="6">
-        <v>0</v>
-      </c>
-      <c r="K7" s="6">
-        <v>0</v>
-      </c>
-      <c r="L7" s="6">
-        <v>0</v>
-      </c>
-      <c r="M7" s="4"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
+        <v>11.3</v>
+      </c>
+      <c r="N7" s="7">
+        <v>1.4813333333333334</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1">
         <v>29.4</v>
@@ -1173,35 +1184,40 @@
       <c r="D8" s="2">
         <v>0</v>
       </c>
-      <c r="E8" s="6">
-        <v>0</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0</v>
-      </c>
-      <c r="G8" s="6">
-        <v>0</v>
-      </c>
-      <c r="H8" s="6">
-        <v>0</v>
-      </c>
-      <c r="I8" s="6">
-        <v>0</v>
-      </c>
-      <c r="J8" s="6">
-        <v>0</v>
-      </c>
-      <c r="K8" s="6">
-        <v>0</v>
-      </c>
-      <c r="L8" s="6">
-        <v>0</v>
-      </c>
-      <c r="M8" s="4"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>11.7</v>
+      </c>
+      <c r="N8" s="7">
+        <v>1.4331428571428571</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1">
         <v>30.2</v>
@@ -1212,35 +1228,40 @@
       <c r="D9" s="2">
         <v>0</v>
       </c>
-      <c r="E9" s="6">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6">
-        <v>0</v>
-      </c>
-      <c r="G9" s="6">
-        <v>0</v>
-      </c>
-      <c r="H9" s="6">
-        <v>0</v>
-      </c>
-      <c r="I9" s="6">
-        <v>0</v>
-      </c>
-      <c r="J9" s="6">
-        <v>0</v>
-      </c>
-      <c r="K9" s="6">
-        <v>0</v>
-      </c>
-      <c r="L9" s="6">
-        <v>0</v>
-      </c>
-      <c r="M9" s="4"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <v>11.2</v>
+      </c>
+      <c r="N9" s="7">
+        <v>1.2704761904761905</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1">
         <v>26.6</v>
@@ -1251,35 +1272,40 @@
       <c r="D10" s="2">
         <v>0</v>
       </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0</v>
-      </c>
-      <c r="G10" s="6">
-        <v>0</v>
-      </c>
-      <c r="H10" s="6">
-        <v>0</v>
-      </c>
-      <c r="I10" s="6">
-        <v>0</v>
-      </c>
-      <c r="J10" s="6">
-        <v>0</v>
-      </c>
-      <c r="K10" s="6">
-        <v>0</v>
-      </c>
-      <c r="L10" s="6">
-        <v>0</v>
-      </c>
-      <c r="M10" s="4"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="N10" s="7">
+        <v>1.0460952380952382</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1">
         <v>22.35</v>
@@ -1290,35 +1316,40 @@
       <c r="D11" s="2">
         <v>0</v>
       </c>
-      <c r="E11" s="6">
-        <v>0</v>
-      </c>
-      <c r="F11" s="6">
-        <v>0</v>
-      </c>
-      <c r="G11" s="6">
-        <v>0</v>
-      </c>
-      <c r="H11" s="6">
-        <v>0</v>
-      </c>
-      <c r="I11" s="6">
-        <v>0</v>
-      </c>
-      <c r="J11" s="6">
-        <v>0</v>
-      </c>
-      <c r="K11" s="6">
-        <v>0</v>
-      </c>
-      <c r="L11" s="6">
-        <v>0</v>
-      </c>
-      <c r="M11" s="4"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3">
+        <v>7.8</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0.78380952380952384</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1">
         <v>18.149999999999999</v>
@@ -1329,35 +1360,40 @@
       <c r="D12" s="2">
         <v>0</v>
       </c>
-      <c r="E12" s="6">
-        <v>0</v>
-      </c>
-      <c r="F12" s="6">
-        <v>0</v>
-      </c>
-      <c r="G12" s="6">
-        <v>0</v>
-      </c>
-      <c r="H12" s="6">
-        <v>0</v>
-      </c>
-      <c r="I12" s="6">
-        <v>0</v>
-      </c>
-      <c r="J12" s="6">
-        <v>0</v>
-      </c>
-      <c r="K12" s="6">
-        <v>0</v>
-      </c>
-      <c r="L12" s="6">
-        <v>0</v>
-      </c>
-      <c r="M12" s="4"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
+        <v>6.3</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0.57695238095238088</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="1">
         <v>14.05</v>
@@ -1369,208 +1405,214 @@
         <f>C13-B13</f>
         <v>3.9499999999999993</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>4.58</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <v>2.34</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <v>4.08</v>
       </c>
-      <c r="H13" s="4">
-        <v>1.3800000000000001</v>
-      </c>
-      <c r="I13" s="4">
+      <c r="H13" s="3">
+        <v>1.38</v>
+      </c>
+      <c r="I13" s="3">
         <v>4.3</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="3">
         <v>2.34</v>
       </c>
-      <c r="K13" s="4">
-        <v>4.4700000000000006</v>
-      </c>
-      <c r="L13" s="4">
+      <c r="K13" s="3">
+        <v>4.47</v>
+      </c>
+      <c r="L13" s="3">
         <v>1.95</v>
       </c>
-      <c r="M13" s="4"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M13" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0.44342857142857139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3">
         <v>0.86</v>
       </c>
       <c r="F14" s="5">
         <v>0.73099999999999998</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <v>0.89</v>
       </c>
       <c r="H14" s="5">
         <v>0.75649999999999995</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="3">
         <v>0.78</v>
       </c>
       <c r="J14" s="5">
         <v>0.66300000000000003</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="3">
         <v>0.91</v>
       </c>
       <c r="L14" s="5">
         <v>0.77349999999999997</v>
       </c>
-      <c r="M14" s="4"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3">
         <v>31712.5</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <v>31712.5</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <v>30512.5</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <v>30512.5</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="3">
         <v>31712.5</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="3">
         <v>31712.5</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="3">
         <v>31712.5</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="3">
         <v>31712.5</v>
       </c>
-      <c r="M15" s="4"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>218.75</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="4"/>
+      <c r="G17" s="3"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="4"/>
+      <c r="I17" s="3"/>
       <c r="J17" s="5"/>
-      <c r="K17" s="4"/>
+      <c r="K17" s="3"/>
       <c r="L17" s="5"/>
-      <c r="M17" s="4"/>
+      <c r="M17" s="3"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1580,37 +1622,43 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N1" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1">
         <v>10.4</v>
@@ -1618,7 +1666,7 @@
       <c r="C2" s="1">
         <v>18</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="6">
         <f>C2-B2</f>
         <v>7.6</v>
       </c>
@@ -1634,22 +1682,28 @@
       <c r="H2" s="1">
         <v>1.44</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="3">
         <v>4.5</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="3">
         <v>2.37</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="3">
         <v>4.6900000000000004</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="3">
         <v>2.0379999999999998</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="N2" s="7">
+        <v>0.54259999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1">
         <v>10.75</v>
@@ -1657,7 +1711,7 @@
       <c r="C3" s="1">
         <v>18</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="6">
         <f>C3-B3</f>
         <v>7.25</v>
       </c>
@@ -1673,22 +1727,28 @@
       <c r="H3" s="1">
         <v>1.43</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <v>4.47</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="3">
         <v>2.36</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="3">
         <v>4.66</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="3">
         <v>2.0369999999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="N3" s="7">
+        <v>0.70660000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1">
         <v>12.9</v>
@@ -1696,14 +1756,14 @@
       <c r="C4" s="1">
         <v>18</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="6">
         <f>C4-B4</f>
         <v>5.0999999999999996</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>4.59</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>2.3199999999999998</v>
       </c>
       <c r="G4" s="1">
@@ -1712,22 +1772,28 @@
       <c r="H4" s="1">
         <v>1.38</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <v>4.3099999999999996</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="3">
         <v>2.3199999999999998</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="3">
         <v>4.5</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="3">
         <v>1.95</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4" s="3">
+        <v>6.7</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0.99540000000000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1">
         <v>16.100000000000001</v>
@@ -1735,7 +1801,7 @@
       <c r="C5" s="1">
         <v>18</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="6">
         <f>C5-B5</f>
         <v>1.8999999999999986</v>
       </c>
@@ -1751,22 +1817,28 @@
       <c r="H5" s="1">
         <v>1.35</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>4.2699999999999996</v>
       </c>
       <c r="J5" s="1">
         <v>2.31</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="3">
         <v>4.4400000000000004</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="3">
         <v>1.92</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" s="3">
+        <v>7.9</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1.1868000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1">
         <v>20.3</v>
@@ -1774,37 +1846,43 @@
       <c r="C6" s="1">
         <v>18</v>
       </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="6">
-        <v>0</v>
-      </c>
-      <c r="I6" s="6">
-        <v>0</v>
-      </c>
-      <c r="J6" s="6">
-        <v>0</v>
-      </c>
-      <c r="K6" s="6">
-        <v>0</v>
-      </c>
-      <c r="L6" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="N6" s="7">
+        <v>1.4174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1">
         <v>25.2</v>
@@ -1812,37 +1890,43 @@
       <c r="C7" s="1">
         <v>18</v>
       </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="6">
-        <v>0</v>
-      </c>
-      <c r="F7" s="6">
-        <v>0</v>
-      </c>
-      <c r="G7" s="6">
-        <v>0</v>
-      </c>
-      <c r="H7" s="6">
-        <v>0</v>
-      </c>
-      <c r="I7" s="6">
-        <v>0</v>
-      </c>
-      <c r="J7" s="6">
-        <v>0</v>
-      </c>
-      <c r="K7" s="6">
-        <v>0</v>
-      </c>
-      <c r="L7" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
+        <v>11.3</v>
+      </c>
+      <c r="N7" s="7">
+        <v>1.5554000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1">
         <v>28.3</v>
@@ -1850,37 +1934,43 @@
       <c r="C8" s="1">
         <v>18</v>
       </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="6">
-        <v>0</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0</v>
-      </c>
-      <c r="G8" s="6">
-        <v>0</v>
-      </c>
-      <c r="H8" s="6">
-        <v>0</v>
-      </c>
-      <c r="I8" s="6">
-        <v>0</v>
-      </c>
-      <c r="J8" s="6">
-        <v>0</v>
-      </c>
-      <c r="K8" s="6">
-        <v>0</v>
-      </c>
-      <c r="L8" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>11.7</v>
+      </c>
+      <c r="N8" s="7">
+        <v>1.5047999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1">
         <v>28.15</v>
@@ -1888,37 +1978,43 @@
       <c r="C9" s="1">
         <v>18</v>
       </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6">
-        <v>0</v>
-      </c>
-      <c r="G9" s="6">
-        <v>0</v>
-      </c>
-      <c r="H9" s="6">
-        <v>0</v>
-      </c>
-      <c r="I9" s="6">
-        <v>0</v>
-      </c>
-      <c r="J9" s="6">
-        <v>0</v>
-      </c>
-      <c r="K9" s="6">
-        <v>0</v>
-      </c>
-      <c r="L9" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <v>11.2</v>
+      </c>
+      <c r="N9" s="7">
+        <v>1.3340000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1">
         <v>25.05</v>
@@ -1926,37 +2022,43 @@
       <c r="C10" s="1">
         <v>18</v>
       </c>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0</v>
-      </c>
-      <c r="G10" s="6">
-        <v>0</v>
-      </c>
-      <c r="H10" s="6">
-        <v>0</v>
-      </c>
-      <c r="I10" s="6">
-        <v>0</v>
-      </c>
-      <c r="J10" s="6">
-        <v>0</v>
-      </c>
-      <c r="K10" s="6">
-        <v>0</v>
-      </c>
-      <c r="L10" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="N10" s="7">
+        <v>1.0984</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1">
         <v>20.85</v>
@@ -1964,37 +2066,43 @@
       <c r="C11" s="1">
         <v>18</v>
       </c>
-      <c r="D11" s="3">
-        <v>0</v>
-      </c>
-      <c r="E11" s="6">
-        <v>0</v>
-      </c>
-      <c r="F11" s="6">
-        <v>0</v>
-      </c>
-      <c r="G11" s="6">
-        <v>0</v>
-      </c>
-      <c r="H11" s="6">
-        <v>0</v>
-      </c>
-      <c r="I11" s="6">
-        <v>0</v>
-      </c>
-      <c r="J11" s="6">
-        <v>0</v>
-      </c>
-      <c r="K11" s="6">
-        <v>0</v>
-      </c>
-      <c r="L11" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D11" s="6">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3">
+        <v>7.8</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0.82300000000000006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1">
         <v>15.75</v>
@@ -2002,7 +2110,7 @@
       <c r="C12" s="1">
         <v>18</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="6">
         <f>C12-B12</f>
         <v>2.25</v>
       </c>
@@ -2018,22 +2126,28 @@
       <c r="H12" s="1">
         <v>1.35</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="3">
         <v>4.2699999999999996</v>
       </c>
       <c r="J12" s="1">
         <v>2.31</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="3">
         <v>4.4400000000000004</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="3">
         <v>1.92</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12" s="3">
+        <v>6.3</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0.60580000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="1">
         <v>11.95</v>
@@ -2041,7 +2155,7 @@
       <c r="C13" s="1">
         <v>18</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="6">
         <f>C13-B13</f>
         <v>6.0500000000000007</v>
       </c>
@@ -2057,214 +2171,216 @@
       <c r="H13" s="1">
         <v>1.4</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="3">
         <v>4.3600000000000003</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="3">
         <v>2.35</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="3">
         <v>4.5599999999999996</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="3">
         <v>1.98</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0.46559999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3">
         <v>0.86</v>
       </c>
       <c r="F14" s="5">
         <v>0.73099999999999998</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <v>0.89</v>
       </c>
       <c r="H14" s="5">
         <v>0.75649999999999995</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="3">
         <v>0.78</v>
       </c>
       <c r="J14" s="5">
         <v>0.66300000000000003</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="3">
         <v>0.91</v>
       </c>
       <c r="L14" s="5">
         <v>0.77349999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3">
         <v>31712.5</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <v>31712.5</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <v>30512.5</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <v>30512.5</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="3">
         <v>31712.5</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="3">
         <v>31712.5</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="3">
         <v>31712.5</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="3">
         <v>31712.5</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>227.08</v>
       </c>
       <c r="B17" s="1"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="4"/>
+      <c r="G17" s="3"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="4"/>
+      <c r="I17" s="3"/>
       <c r="J17" s="5"/>
-      <c r="K17" s="4"/>
+      <c r="K17" s="3"/>
       <c r="L17" s="5"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4">
-        <v>0.03</v>
-      </c>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -2277,27 +2393,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2307,37 +2424,43 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N1" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1">
         <v>13</v>
@@ -2345,14 +2468,14 @@
       <c r="C2" s="1">
         <v>18</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="6">
         <f>C2-B2</f>
         <v>5</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>4.59</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>2.3199999999999998</v>
       </c>
       <c r="G2" s="1">
@@ -2361,22 +2484,28 @@
       <c r="H2" s="1">
         <v>1.38</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="3">
         <v>4.3099999999999996</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="3">
         <v>2.3199999999999998</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="3">
         <v>4.5</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="3">
         <v>1.95</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="N2" s="7">
+        <v>0.54259999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1">
         <v>12.95</v>
@@ -2384,14 +2513,14 @@
       <c r="C3" s="1">
         <v>18</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="6">
         <f>C3-B3</f>
         <v>5.0500000000000007</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>4.59</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>2.3199999999999998</v>
       </c>
       <c r="G3" s="1">
@@ -2400,22 +2529,28 @@
       <c r="H3" s="1">
         <v>1.38</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <v>4.3099999999999996</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="3">
         <v>2.3199999999999998</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="3">
         <v>4.5</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="3">
         <v>1.95</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="N3" s="7">
+        <v>0.70660000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1">
         <v>14.5</v>
@@ -2423,7 +2558,7 @@
       <c r="C4" s="1">
         <v>18</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="6">
         <f>C4-B4</f>
         <v>3.5</v>
       </c>
@@ -2439,22 +2574,28 @@
       <c r="H4" s="1">
         <v>1.35</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <v>4.2699999999999996</v>
       </c>
       <c r="J4" s="1">
         <v>2.31</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="3">
         <v>4.4400000000000004</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="3">
         <v>1.92</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4" s="3">
+        <v>6.7</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0.99540000000000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1">
         <v>17.45</v>
@@ -2462,7 +2603,7 @@
       <c r="C5" s="1">
         <v>18</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="6">
         <f>C5-B5</f>
         <v>0.55000000000000071</v>
       </c>
@@ -2478,22 +2619,28 @@
       <c r="H5" s="1">
         <v>1.35</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>4.2699999999999996</v>
       </c>
       <c r="J5" s="1">
         <v>2.31</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="3">
         <v>4.4400000000000004</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="3">
         <v>1.92</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" s="3">
+        <v>7.9</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1.1868000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1">
         <v>21.2</v>
@@ -2501,37 +2648,43 @@
       <c r="C6" s="1">
         <v>18</v>
       </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="6">
-        <v>0</v>
-      </c>
-      <c r="I6" s="6">
-        <v>0</v>
-      </c>
-      <c r="J6" s="6">
-        <v>0</v>
-      </c>
-      <c r="K6" s="6">
-        <v>0</v>
-      </c>
-      <c r="L6" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="N6" s="7">
+        <v>1.4174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1">
         <v>25.15</v>
@@ -2539,37 +2692,43 @@
       <c r="C7" s="1">
         <v>18</v>
       </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="6">
-        <v>0</v>
-      </c>
-      <c r="F7" s="6">
-        <v>0</v>
-      </c>
-      <c r="G7" s="6">
-        <v>0</v>
-      </c>
-      <c r="H7" s="6">
-        <v>0</v>
-      </c>
-      <c r="I7" s="6">
-        <v>0</v>
-      </c>
-      <c r="J7" s="6">
-        <v>0</v>
-      </c>
-      <c r="K7" s="6">
-        <v>0</v>
-      </c>
-      <c r="L7" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
+        <v>11.3</v>
+      </c>
+      <c r="N7" s="7">
+        <v>1.5554000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1">
         <v>28.05</v>
@@ -2577,37 +2736,43 @@
       <c r="C8" s="1">
         <v>18</v>
       </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="6">
-        <v>0</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0</v>
-      </c>
-      <c r="G8" s="6">
-        <v>0</v>
-      </c>
-      <c r="H8" s="6">
-        <v>0</v>
-      </c>
-      <c r="I8" s="6">
-        <v>0</v>
-      </c>
-      <c r="J8" s="6">
-        <v>0</v>
-      </c>
-      <c r="K8" s="6">
-        <v>0</v>
-      </c>
-      <c r="L8" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>11.7</v>
+      </c>
+      <c r="N8" s="7">
+        <v>1.5047999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1">
         <v>28.55</v>
@@ -2615,37 +2780,43 @@
       <c r="C9" s="1">
         <v>18</v>
       </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6">
-        <v>0</v>
-      </c>
-      <c r="G9" s="6">
-        <v>0</v>
-      </c>
-      <c r="H9" s="6">
-        <v>0</v>
-      </c>
-      <c r="I9" s="6">
-        <v>0</v>
-      </c>
-      <c r="J9" s="6">
-        <v>0</v>
-      </c>
-      <c r="K9" s="6">
-        <v>0</v>
-      </c>
-      <c r="L9" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <v>11.2</v>
+      </c>
+      <c r="N9" s="7">
+        <v>1.3340000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1">
         <v>26.2</v>
@@ -2653,37 +2824,43 @@
       <c r="C10" s="1">
         <v>18</v>
       </c>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0</v>
-      </c>
-      <c r="G10" s="6">
-        <v>0</v>
-      </c>
-      <c r="H10" s="6">
-        <v>0</v>
-      </c>
-      <c r="I10" s="6">
-        <v>0</v>
-      </c>
-      <c r="J10" s="6">
-        <v>0</v>
-      </c>
-      <c r="K10" s="6">
-        <v>0</v>
-      </c>
-      <c r="L10" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="N10" s="7">
+        <v>1.0984</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1">
         <v>22.25</v>
@@ -2691,37 +2868,43 @@
       <c r="C11" s="1">
         <v>18</v>
       </c>
-      <c r="D11" s="3">
-        <v>0</v>
-      </c>
-      <c r="E11" s="6">
-        <v>0</v>
-      </c>
-      <c r="F11" s="6">
-        <v>0</v>
-      </c>
-      <c r="G11" s="6">
-        <v>0</v>
-      </c>
-      <c r="H11" s="6">
-        <v>0</v>
-      </c>
-      <c r="I11" s="6">
-        <v>0</v>
-      </c>
-      <c r="J11" s="6">
-        <v>0</v>
-      </c>
-      <c r="K11" s="6">
-        <v>0</v>
-      </c>
-      <c r="L11" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D11" s="6">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3">
+        <v>7.8</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0.82300000000000006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1">
         <v>18.05</v>
@@ -2729,37 +2912,43 @@
       <c r="C12" s="1">
         <v>18</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="6">
         <v>-0.5</v>
       </c>
-      <c r="E12" s="6">
-        <v>0</v>
-      </c>
-      <c r="F12" s="6">
-        <v>0</v>
-      </c>
-      <c r="G12" s="6">
-        <v>0</v>
-      </c>
-      <c r="H12" s="6">
-        <v>0</v>
-      </c>
-      <c r="I12" s="6">
-        <v>0</v>
-      </c>
-      <c r="J12" s="6">
-        <v>0</v>
-      </c>
-      <c r="K12" s="6">
-        <v>0</v>
-      </c>
-      <c r="L12" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
+        <v>6.3</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0.60580000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="1">
         <v>14.6</v>
@@ -2767,7 +2956,7 @@
       <c r="C13" s="1">
         <v>18</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="6">
         <f>C13-B13</f>
         <v>3.4000000000000004</v>
       </c>
@@ -2783,135 +2972,140 @@
       <c r="H13" s="1">
         <v>1.35</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="3">
         <v>4.2699999999999996</v>
       </c>
       <c r="J13" s="1">
         <v>2.31</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="3">
         <v>4.4400000000000004</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="3">
         <v>1.92</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0.46559999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4">
+        <v>26</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3">
         <v>0.86</v>
       </c>
       <c r="F14" s="5">
         <v>0.73099999999999998</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <v>0.89</v>
       </c>
       <c r="H14" s="5">
         <v>0.75649999999999995</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="3">
         <v>0.78</v>
       </c>
       <c r="J14" s="5">
         <v>0.66300000000000003</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="3">
         <v>0.91</v>
       </c>
       <c r="L14" s="5">
         <v>0.77349999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3">
         <v>31712.5</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <v>31712.5</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <v>30512.5</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <v>30512.5</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="3">
         <v>31712.5</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="3">
         <v>31712.5</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="3">
         <v>31712.5</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="3">
         <v>31712.5</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>227.08</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="4"/>
+      <c r="G17" s="3"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="4"/>
+      <c r="I17" s="3"/>
       <c r="J17" s="5"/>
-      <c r="K17" s="4"/>
+      <c r="K17" s="3"/>
       <c r="L17" s="5"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>